--- a/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
+++ b/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA658BFD-9266-4EE6-B6A9-CF28D9B24674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81470A2-4273-4569-99CB-412D991996B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="261">
   <si>
     <t>Macro Aree</t>
   </si>
@@ -803,6 +803,16 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Attuazione di un sistema automatizzato per la sierologia in sanità animale</t>
+  </si>
+  <si>
+    <t>Riduzione del numero di segnalazioni di aspetti non conformi nella fornitura di prodotti del Laboratorio preparazione terreni del laboratorio, pervenute dall’utenza interna.
+N° segnalazioni anno in corso/N° segnalazioni anno 2020</t>
+  </si>
+  <si>
+    <t>Certificazione ISO 9001dell’attività di produzioni di kit ELISA. a) stesura di capitolato per assegnazione di consulenza esterna con coinvolgimento degli Uffici Amministrativi per l’espletamento della gara. b) stesura di Procedure Operative Standard per processo di stabilizzazione e per l’allestimento/produzione di kit ELISA. (Target ≥3)</t>
   </si>
 </sst>
 </file>
@@ -857,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -899,6 +909,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -906,9 +922,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1606,7 +1619,7 @@
       <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1620,7 +1633,7 @@
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1674,7 +1687,7 @@
         <v>36</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1682,7 +1695,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -1692,7 +1705,7 @@
         <v>37</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1700,7 +1713,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1710,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1718,7 +1731,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1728,7 +1741,7 @@
         <v>39</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1736,7 +1749,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1746,7 +1759,7 @@
       <c r="E33" s="5">
         <v>0.9</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1754,7 +1767,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="7"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1762,7 +1775,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="7"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -1770,7 +1783,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -1778,7 +1791,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="7"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1786,7 +1799,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1794,7 +1807,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -1802,7 +1815,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="15"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1810,7 +1823,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="15"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1820,7 +1833,7 @@
       <c r="E42" s="5">
         <v>1</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1828,7 +1841,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="15"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -1836,7 +1849,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -1844,7 +1857,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="15"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1852,7 +1865,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -1860,7 +1873,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="7"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="15"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -1868,7 +1881,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="15"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -1878,7 +1891,7 @@
       <c r="E49" s="5">
         <v>0.9</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -1886,7 +1899,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="7"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="15"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -1894,7 +1907,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="7"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="15"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -1902,7 +1915,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="7"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="15"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -1910,7 +1923,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="15"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -1918,7 +1931,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="15"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -1946,7 +1959,7 @@
       <c r="E56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -1954,7 +1967,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="15"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -1962,7 +1975,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="15"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -1972,7 +1985,7 @@
         <v>45</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="15"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -1980,7 +1993,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="15"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -1988,7 +2001,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="15"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -1996,7 +2009,7 @@
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="15"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -2004,7 +2017,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="15"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -2012,7 +2025,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="15"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -2020,7 +2033,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="15"/>
+      <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -2028,7 +2041,7 @@
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="15"/>
+      <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -2036,7 +2049,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="15"/>
+      <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -2046,7 +2059,7 @@
       <c r="E68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="15"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -2054,7 +2067,7 @@
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="15"/>
+      <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" ht="315.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -2078,7 +2091,7 @@
       <c r="E71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="15"/>
+      <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -2088,7 +2101,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="15"/>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -2098,7 +2111,7 @@
         <v>48</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="15"/>
+      <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
@@ -2106,7 +2119,7 @@
       <c r="C74" s="4"/>
       <c r="D74" s="8"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="15"/>
+      <c r="F74" s="17"/>
     </row>
     <row r="75" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
@@ -2116,7 +2129,7 @@
         <v>49</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="15"/>
+      <c r="F75" s="17"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -2126,7 +2139,7 @@
       <c r="E76" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="15"/>
+      <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
@@ -2136,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="15"/>
+      <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -2146,7 +2159,7 @@
         <v>26</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="15"/>
+      <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -2158,7 +2171,7 @@
       <c r="E79" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F79" s="15"/>
+      <c r="F79" s="17"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -2166,7 +2179,7 @@
       <c r="C80" s="4"/>
       <c r="D80" s="8"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="15"/>
+      <c r="F80" s="17"/>
     </row>
     <row r="81" spans="1:6" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -2178,7 +2191,7 @@
       <c r="E81" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="15"/>
+      <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -2186,7 +2199,7 @@
       <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="15"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -2194,7 +2207,7 @@
       <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="15"/>
+      <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -2204,7 +2217,7 @@
       <c r="E84" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="15"/>
+      <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -2212,7 +2225,7 @@
       <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="15"/>
+      <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
@@ -2220,7 +2233,7 @@
       <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="15"/>
+      <c r="F86" s="17"/>
     </row>
     <row r="87" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -2242,21 +2255,21 @@
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="15"/>
+      <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="15"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:6" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -2268,10 +2281,10 @@
       <c r="C90" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F90" s="2"/>
@@ -2280,8 +2293,8 @@
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2294,7 +2307,7 @@
       <c r="E92" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="15"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -2302,7 +2315,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="7"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="15"/>
+      <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -2312,7 +2325,7 @@
         <v>22</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="15"/>
+      <c r="F94" s="17"/>
     </row>
     <row r="95" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -2322,7 +2335,7 @@
         <v>64</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="15"/>
+      <c r="F95" s="17"/>
     </row>
     <row r="96" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -2332,7 +2345,7 @@
         <v>65</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="15"/>
+      <c r="F96" s="17"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
@@ -2340,7 +2353,7 @@
       <c r="C97" s="4"/>
       <c r="D97" s="7"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="15"/>
+      <c r="F97" s="17"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
@@ -2348,7 +2361,7 @@
       <c r="C98" s="4"/>
       <c r="D98" s="7"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="15"/>
+      <c r="F98" s="17"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
@@ -2358,7 +2371,7 @@
       <c r="E99" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="15"/>
+      <c r="F99" s="17"/>
     </row>
     <row r="100" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -2497,32 +2510,32 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F110" s="15"/>
+      <c r="F110" s="17"/>
     </row>
     <row r="111" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
       <c r="D111" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="15"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="17"/>
     </row>
     <row r="112" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -2537,10 +2550,10 @@
       <c r="D112" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="15"/>
+      <c r="F112" s="17"/>
     </row>
     <row r="113" spans="1:6" ht="315.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -2549,8 +2562,8 @@
       <c r="D113" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="15"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="17"/>
     </row>
     <row r="114" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
@@ -2576,7 +2589,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2799,10 +2812,10 @@
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="17">
+      <c r="E133" s="19">
         <v>1</v>
       </c>
-      <c r="F133" s="15"/>
+      <c r="F133" s="17"/>
     </row>
     <row r="134" spans="1:6" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
@@ -2811,18 +2824,18 @@
       <c r="D134" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E134" s="17"/>
-      <c r="F134" s="15"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="17"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="8"/>
-      <c r="E135" s="17">
+      <c r="E135" s="19">
         <v>0.35</v>
       </c>
-      <c r="F135" s="15"/>
+      <c r="F135" s="17"/>
     </row>
     <row r="136" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
@@ -2831,18 +2844,18 @@
       <c r="D136" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E136" s="17"/>
-      <c r="F136" s="15"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="17"/>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="17">
+      <c r="E137" s="19">
         <v>0.5</v>
       </c>
-      <c r="F137" s="15"/>
+      <c r="F137" s="17"/>
     </row>
     <row r="138" spans="1:6" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
@@ -2851,8 +2864,8 @@
       <c r="D138" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="15"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="17"/>
     </row>
     <row r="139" spans="1:6" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
@@ -2861,10 +2874,10 @@
       <c r="D139" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E139" s="17">
+      <c r="E139" s="19">
         <v>0.6</v>
       </c>
-      <c r="F139" s="15"/>
+      <c r="F139" s="17"/>
     </row>
     <row r="140" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
@@ -2873,8 +2886,8 @@
       <c r="D140" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E140" s="17"/>
-      <c r="F140" s="15"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="17"/>
     </row>
     <row r="141" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -3055,10 +3068,10 @@
       <c r="D153" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F153" s="15"/>
+      <c r="F153" s="17"/>
     </row>
     <row r="154" spans="1:6" ht="315.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
@@ -3067,8 +3080,8 @@
       <c r="D154" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E154" s="16"/>
-      <c r="F154" s="15"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="17"/>
     </row>
     <row r="155" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
@@ -3095,10 +3108,10 @@
         <v>166</v>
       </c>
       <c r="D156" s="8"/>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F156" s="15"/>
+      <c r="F156" s="17"/>
     </row>
     <row r="157" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
@@ -3107,8 +3120,8 @@
       <c r="D157" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E157" s="16"/>
-      <c r="F157" s="15"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="17"/>
     </row>
     <row r="158" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
@@ -3156,13 +3169,13 @@
       <c r="C161" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="D161" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E161" s="17">
+      <c r="E161" s="19">
         <v>0.8</v>
       </c>
-      <c r="F161" s="15"/>
+      <c r="F161" s="17"/>
     </row>
     <row r="162" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
@@ -3170,9 +3183,9 @@
       <c r="C162" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D162" s="16"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="15"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="17"/>
     </row>
     <row r="163" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
@@ -3224,7 +3237,7 @@
       <c r="E166" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F166" s="15"/>
+      <c r="F166" s="17"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
@@ -3234,7 +3247,7 @@
       <c r="E167" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="15"/>
+      <c r="F167" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3279,15 +3292,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD392ED4-9F24-4F9E-8BCF-B59BE7E08780}">
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AK91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
@@ -3434,14 +3449,67 @@
       <c r="J2">
         <v>2.1</v>
       </c>
+      <c r="K2">
+        <v>2.52</v>
+      </c>
+      <c r="L2">
+        <v>1.68</v>
+      </c>
+      <c r="M2">
+        <v>1.7</v>
+      </c>
+      <c r="N2">
+        <v>1.4</v>
+      </c>
+      <c r="O2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P2">
+        <v>2.46</v>
+      </c>
+      <c r="Q2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="R2">
+        <v>1.98</v>
+      </c>
+      <c r="S2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="X2">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.78</v>
+      </c>
+      <c r="Z2">
+        <v>1.98</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -3483,7 +3551,36 @@
       <c r="A6" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -3495,7 +3592,21 @@
       <c r="A8" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="X8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -3545,7 +3656,21 @@
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -3579,37 +3704,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>214</v>
       </c>
@@ -3640,32 +3793,85 @@
       <c r="J19">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.03</v>
+      </c>
+      <c r="L19">
+        <v>0.02</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.04</v>
+      </c>
+      <c r="O19">
+        <v>0.2</v>
+      </c>
+      <c r="P19">
+        <v>0.03</v>
+      </c>
+      <c r="Q19">
+        <v>0.03</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>0.22</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1.92</v>
+      </c>
+      <c r="AA19">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X20">
+        <v>0.22</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>253</v>
       </c>
@@ -3696,428 +3902,739 @@
       <c r="J24">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="K24">
+        <v>0.06</v>
+      </c>
+      <c r="L24">
+        <v>0.04</v>
+      </c>
+      <c r="M24">
+        <v>0.04</v>
+      </c>
+      <c r="N24">
+        <v>0.16</v>
+      </c>
+      <c r="O24">
+        <v>0.2</v>
+      </c>
+      <c r="P24">
+        <v>0.06</v>
+      </c>
+      <c r="Q24">
+        <v>0.06</v>
+      </c>
+      <c r="R24">
+        <v>0.06</v>
+      </c>
+      <c r="S24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.16</v>
+      </c>
+      <c r="P25">
+        <v>0.09</v>
+      </c>
+      <c r="Q25">
+        <v>0.03</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0.3</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.15</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>0.08</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="B31" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X31">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0.3</v>
+      </c>
+      <c r="AA31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="B32" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X32">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Y32">
+        <v>0.02</v>
+      </c>
+      <c r="Z32">
+        <v>0.3</v>
+      </c>
+      <c r="AA32">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0.09</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="X35">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.09</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.06</v>
+      </c>
+      <c r="K36">
+        <v>0.03</v>
+      </c>
+      <c r="L36">
+        <v>0.02</v>
+      </c>
+      <c r="M36">
+        <v>0.02</v>
+      </c>
+      <c r="N36">
+        <v>0.04</v>
+      </c>
+      <c r="O36">
+        <v>0.2</v>
+      </c>
+      <c r="P36">
+        <v>0.03</v>
+      </c>
+      <c r="Q36">
+        <v>0.09</v>
+      </c>
+      <c r="R36">
+        <v>0.12</v>
+      </c>
+      <c r="S36">
+        <v>0.1</v>
+      </c>
+      <c r="X36">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37">
         <v>0.48</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.24</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>0.48</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>0.39</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>0.48</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>0.36</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>0.2</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="X37">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y37">
+        <v>0.3</v>
+      </c>
+      <c r="Z37">
+        <v>0.48</v>
+      </c>
+      <c r="AA37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="B38" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38">
+        <v>0.06</v>
+      </c>
+      <c r="L38">
+        <v>0.04</v>
+      </c>
+      <c r="M38">
+        <v>0.04</v>
+      </c>
+      <c r="N38">
+        <v>0.02</v>
+      </c>
+      <c r="O38">
+        <v>0.2</v>
+      </c>
+      <c r="P38">
+        <v>0.03</v>
+      </c>
+      <c r="Q38">
+        <v>0.06</v>
+      </c>
+      <c r="R38">
+        <v>0.12</v>
+      </c>
+      <c r="S38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="B39" s="14"/>
     </row>
-    <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0.2</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X42">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="14"/>
     </row>
-    <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="14"/>
     </row>
-    <row r="46" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+    <row r="69" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="14"/>
-    </row>
-    <row r="70" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X70">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="14"/>
-    </row>
-    <row r="80" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="14"/>
-    </row>
-    <row r="81" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0.08</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>167</v>
       </c>
@@ -4148,95 +4665,195 @@
       <c r="J82">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>0.06</v>
+      </c>
+      <c r="L82">
+        <v>0.04</v>
+      </c>
+      <c r="M82">
+        <v>0.04</v>
+      </c>
+      <c r="N82">
+        <v>0.04</v>
+      </c>
+      <c r="O82">
+        <v>0.08</v>
+      </c>
+      <c r="P82">
+        <v>0.06</v>
+      </c>
+      <c r="Q82">
+        <v>0.06</v>
+      </c>
+      <c r="R82">
+        <v>0.12</v>
+      </c>
+      <c r="S82">
+        <v>0.1</v>
+      </c>
+      <c r="X82">
+        <v>0.11</v>
+      </c>
+      <c r="Y82">
+        <v>0.02</v>
+      </c>
+      <c r="Z82">
+        <v>0.12</v>
+      </c>
+      <c r="AA82">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>169</v>
       </c>
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="14"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="B86" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K86">
+        <v>0.24</v>
+      </c>
+      <c r="L86">
+        <v>0.16</v>
+      </c>
+      <c r="M86">
+        <v>0.16</v>
+      </c>
+      <c r="N86">
+        <v>0.1</v>
+      </c>
+      <c r="O86">
+        <v>0.48</v>
+      </c>
+      <c r="P86">
+        <v>0.24</v>
+      </c>
+      <c r="Q86">
+        <v>0.18</v>
+      </c>
+      <c r="R86">
+        <v>0.12</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" s="14"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+    <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B91" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
         <v>0.15</v>
       </c>
-      <c r="G92">
+      <c r="G91">
         <v>0.6</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0.2</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0.48</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="Y91">
+        <v>0.6</v>
+      </c>
+      <c r="Z91">
+        <v>0.9</v>
+      </c>
+      <c r="AA91">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A86:A87"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
+++ b/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17116E4A-8F52-46C5-BC0E-C0DAA7ED3F20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4EB8EB-9E30-4B25-A603-4CED17AD7B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
+    <sheet name="FTEDdipsan" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio2!$A$1:$AK$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio2!$A$1:$AK$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
   <si>
     <t>Supporto alle Regioni/ATS/AUSL per la definizione dei Piani di Sanità Pubblica Veterinaria: numero richieste evase/n. richieste pervenute</t>
   </si>
@@ -265,9 +266,6 @@
   </si>
   <si>
     <t>Definizione di un Piano di sviluppo per nuovi MMPP a valenza intradipartimentale e interdipartimentale: definizione di un piano con almeno 5 metodi di prova</t>
-  </si>
-  <si>
-    <t>Definizione di un Piano di sviluppo per nuovi MMPP a valenza intradipartimentale e interdipartimentale: Attuazione del piano di sviluppo</t>
   </si>
   <si>
     <t xml:space="preserve">Attuazione del piano West Nile.                                                                                                                       </t>
@@ -413,6 +411,9 @@
   </si>
   <si>
     <t>Certificazione ISO 9001dell’attività di produzioni di kit ELISA. a) stesura di capitolato per assegnazione di consulenza esterna con coinvolgimento degli Uffici Amministrativi per l’espletamento della gara. b) stesura di Procedure Operative Standard per processo di stabilizzazione e per l’allestimento/produzione di kit ELISA. (Target ≥3)</t>
+  </si>
+  <si>
+    <t>Partecipazione alla progettazione esecutiva della nuova palazzina per laboratori ad alta efficienza previa demolizione dell'edificio ex sede IZO presso la sede di Brescia in collaborazione con infrastrutture  Lombarde</t>
   </si>
 </sst>
 </file>
@@ -795,7 +796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD392ED4-9F24-4F9E-8BCF-B59BE7E08780}">
   <dimension ref="A1:AK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection sqref="A1:AA1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -806,123 +809,123 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>99</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>100</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>102</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>103</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>104</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>107</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>109</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>110</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>112</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>113</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>115</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>116</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>117</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>2.8</v>
@@ -975,6 +978,18 @@
       <c r="S2">
         <v>2.5499999999999998</v>
       </c>
+      <c r="T2">
+        <v>0.6</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2.4</v>
+      </c>
+      <c r="W2">
+        <v>1.92</v>
+      </c>
       <c r="X2">
         <v>3.5750000000000002</v>
       </c>
@@ -993,7 +1008,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="T3">
+        <v>0.1</v>
+      </c>
+      <c r="U3">
+        <v>0.04</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.4</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1019,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>0.44</v>
@@ -1044,6 +1071,18 @@
       </c>
       <c r="J5">
         <v>0.09</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
@@ -1051,7 +1090,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1092,7 +1131,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X8">
         <v>5.5E-2</v>
@@ -1115,10 +1154,10 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1156,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1173,10 +1212,10 @@
     </row>
     <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1208,28 +1247,54 @@
         <v>78</v>
       </c>
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:37" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>0.4</v>
+      </c>
+      <c r="U14">
+        <v>0.72</v>
+      </c>
+      <c r="V14">
+        <v>0.4</v>
+      </c>
+      <c r="W14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X17">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1238,86 +1303,98 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0.03</v>
+      </c>
+      <c r="G18">
+        <v>0.04</v>
+      </c>
+      <c r="H18">
+        <v>0.03</v>
+      </c>
+      <c r="I18">
+        <v>0.02</v>
+      </c>
+      <c r="J18">
+        <v>0.03</v>
+      </c>
+      <c r="K18">
+        <v>0.03</v>
+      </c>
+      <c r="L18">
+        <v>0.02</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.04</v>
+      </c>
+      <c r="O18">
+        <v>0.2</v>
+      </c>
+      <c r="P18">
+        <v>0.03</v>
+      </c>
+      <c r="Q18">
+        <v>0.03</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>1.5</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AA18">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C19">
-        <v>0.04</v>
-      </c>
-      <c r="D19">
-        <v>0.01</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>0.03</v>
-      </c>
-      <c r="G19">
-        <v>0.04</v>
-      </c>
-      <c r="H19">
-        <v>0.03</v>
-      </c>
-      <c r="I19">
-        <v>0.02</v>
-      </c>
-      <c r="J19">
-        <v>0.03</v>
-      </c>
-      <c r="K19">
-        <v>0.03</v>
-      </c>
-      <c r="L19">
-        <v>0.02</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0.04</v>
-      </c>
-      <c r="O19">
-        <v>0.2</v>
-      </c>
-      <c r="P19">
-        <v>0.03</v>
-      </c>
-      <c r="Q19">
-        <v>0.03</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>1.5</v>
       </c>
       <c r="X19">
         <v>0.22</v>
@@ -1326,688 +1403,712 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X20">
-        <v>0.22</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>0.12</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0.12</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="G23">
+        <v>0.16</v>
+      </c>
+      <c r="H23">
+        <v>0.12</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>0.12</v>
+      </c>
+      <c r="K23">
+        <v>0.06</v>
+      </c>
+      <c r="L23">
+        <v>0.04</v>
+      </c>
+      <c r="M23">
+        <v>0.04</v>
+      </c>
+      <c r="N23">
+        <v>0.16</v>
+      </c>
+      <c r="O23">
+        <v>0.2</v>
+      </c>
+      <c r="P23">
+        <v>0.06</v>
+      </c>
+      <c r="Q23">
+        <v>0.06</v>
+      </c>
+      <c r="R23">
+        <v>0.06</v>
+      </c>
+      <c r="S23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C24">
-        <v>0.12</v>
-      </c>
-      <c r="D24">
-        <v>0.1</v>
-      </c>
-      <c r="E24">
-        <v>0.12</v>
-      </c>
-      <c r="F24">
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.16</v>
+      </c>
+      <c r="P24">
+        <v>0.09</v>
+      </c>
+      <c r="Q24">
+        <v>0.03</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>0.15</v>
       </c>
-      <c r="G24">
+    </row>
+    <row r="25" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>0.15</v>
+      </c>
+      <c r="G27">
+        <v>0.08</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.09</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
         <v>0.16</v>
       </c>
-      <c r="H24">
-        <v>0.12</v>
-      </c>
-      <c r="I24">
-        <v>0.1</v>
-      </c>
-      <c r="J24">
-        <v>0.12</v>
-      </c>
-      <c r="K24">
-        <v>0.06</v>
-      </c>
-      <c r="L24">
-        <v>0.04</v>
-      </c>
-      <c r="M24">
-        <v>0.04</v>
-      </c>
-      <c r="N24">
-        <v>0.16</v>
-      </c>
-      <c r="O24">
-        <v>0.2</v>
-      </c>
-      <c r="P24">
-        <v>0.06</v>
-      </c>
-      <c r="Q24">
-        <v>0.06</v>
-      </c>
-      <c r="R24">
-        <v>0.06</v>
-      </c>
-      <c r="S24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0.16</v>
-      </c>
-      <c r="P25">
-        <v>0.09</v>
-      </c>
-      <c r="Q25">
-        <v>0.03</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+    </row>
+    <row r="28" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X30">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
         <v>0.3</v>
       </c>
-      <c r="F28">
-        <v>0.15</v>
-      </c>
-      <c r="G28">
+      <c r="AA30">
         <v>0.08</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0.09</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X31">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z31">
         <v>0.3</v>
       </c>
       <c r="AA31">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X32">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="Y32">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X34">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.09</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.06</v>
+      </c>
+      <c r="K35">
+        <v>0.03</v>
+      </c>
+      <c r="L35">
         <v>0.02</v>
       </c>
-      <c r="Z32">
+      <c r="M35">
+        <v>0.02</v>
+      </c>
+      <c r="N35">
+        <v>0.04</v>
+      </c>
+      <c r="O35">
+        <v>0.2</v>
+      </c>
+      <c r="P35">
+        <v>0.03</v>
+      </c>
+      <c r="Q35">
+        <v>0.09</v>
+      </c>
+      <c r="R35">
+        <v>0.12</v>
+      </c>
+      <c r="S35">
+        <v>0.1</v>
+      </c>
+      <c r="T35">
+        <v>0.1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.4</v>
+      </c>
+      <c r="X35">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <v>0.48</v>
+      </c>
+      <c r="D36">
+        <v>0.24</v>
+      </c>
+      <c r="E36">
+        <v>0.48</v>
+      </c>
+      <c r="F36">
+        <v>0.39</v>
+      </c>
+      <c r="G36">
+        <v>0.48</v>
+      </c>
+      <c r="H36">
+        <v>0.36</v>
+      </c>
+      <c r="I36">
+        <v>0.2</v>
+      </c>
+      <c r="J36">
+        <v>0.21</v>
+      </c>
+      <c r="T36">
+        <v>0.18</v>
+      </c>
+      <c r="U36">
+        <v>0.2</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>1.2</v>
+      </c>
+      <c r="X36">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y36">
         <v>0.3</v>
       </c>
-      <c r="AA32">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X35">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0.09</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0.06</v>
-      </c>
-      <c r="K36">
-        <v>0.03</v>
-      </c>
-      <c r="L36">
-        <v>0.02</v>
-      </c>
-      <c r="M36">
-        <v>0.02</v>
-      </c>
-      <c r="N36">
-        <v>0.04</v>
-      </c>
-      <c r="O36">
-        <v>0.2</v>
-      </c>
-      <c r="P36">
-        <v>0.03</v>
-      </c>
-      <c r="Q36">
-        <v>0.09</v>
-      </c>
-      <c r="R36">
-        <v>0.12</v>
-      </c>
-      <c r="S36">
-        <v>0.1</v>
-      </c>
-      <c r="X36">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37">
-        <v>0.48</v>
-      </c>
-      <c r="D37">
+        <v>123</v>
+      </c>
+      <c r="K37">
+        <v>0.06</v>
+      </c>
+      <c r="L37">
+        <v>0.04</v>
+      </c>
+      <c r="M37">
+        <v>0.04</v>
+      </c>
+      <c r="N37">
+        <v>0.02</v>
+      </c>
+      <c r="O37">
+        <v>0.2</v>
+      </c>
+      <c r="P37">
+        <v>0.03</v>
+      </c>
+      <c r="Q37">
+        <v>0.06</v>
+      </c>
+      <c r="R37">
+        <v>0.12</v>
+      </c>
+      <c r="S37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
         <v>0.24</v>
       </c>
-      <c r="E37">
-        <v>0.48</v>
-      </c>
-      <c r="F37">
-        <v>0.39</v>
-      </c>
-      <c r="G37">
-        <v>0.48</v>
-      </c>
-      <c r="H37">
-        <v>0.36</v>
-      </c>
-      <c r="I37">
-        <v>0.2</v>
-      </c>
-      <c r="J37">
-        <v>0.21</v>
-      </c>
-      <c r="X37">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="Y37">
-        <v>0.3</v>
-      </c>
-      <c r="Z37">
-        <v>0.48</v>
-      </c>
-      <c r="AA37">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K38">
-        <v>0.06</v>
-      </c>
-      <c r="L38">
-        <v>0.04</v>
-      </c>
-      <c r="M38">
-        <v>0.04</v>
-      </c>
-      <c r="N38">
-        <v>0.02</v>
-      </c>
-      <c r="O38">
-        <v>0.2</v>
-      </c>
-      <c r="P38">
-        <v>0.03</v>
-      </c>
-      <c r="Q38">
-        <v>0.06</v>
-      </c>
-      <c r="R38">
-        <v>0.12</v>
-      </c>
-      <c r="S38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X41">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
         <v>0.24</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0.2</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X42">
-        <v>2.75E-2</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
+      <c r="B68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -2016,340 +2117,2023 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X70">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X79">
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
+        <v>65</v>
+      </c>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81">
+        <v>0.12</v>
+      </c>
+      <c r="D81">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.12</v>
+      </c>
+      <c r="F81">
+        <v>0.09</v>
+      </c>
+      <c r="G81">
+        <v>0.12</v>
+      </c>
+      <c r="H81">
+        <v>0.09</v>
+      </c>
+      <c r="I81">
+        <v>0.1</v>
+      </c>
+      <c r="J81">
+        <v>0.09</v>
+      </c>
+      <c r="K81">
+        <v>0.06</v>
+      </c>
+      <c r="L81">
+        <v>0.04</v>
+      </c>
+      <c r="M81">
+        <v>0.04</v>
+      </c>
+      <c r="N81">
+        <v>0.04</v>
+      </c>
+      <c r="O81">
         <v>0.08</v>
       </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" s="4"/>
+      <c r="P81">
+        <v>0.06</v>
+      </c>
+      <c r="Q81">
+        <v>0.06</v>
+      </c>
+      <c r="R81">
+        <v>0.12</v>
+      </c>
+      <c r="S81">
+        <v>0.1</v>
+      </c>
+      <c r="T81">
+        <v>0.02</v>
+      </c>
+      <c r="U81">
+        <v>0.02</v>
+      </c>
+      <c r="V81">
+        <v>0.1</v>
+      </c>
+      <c r="W81">
+        <v>0.1</v>
+      </c>
+      <c r="X81">
+        <v>0.11</v>
+      </c>
+      <c r="Y81">
+        <v>0.02</v>
+      </c>
+      <c r="Z81">
+        <v>0.12</v>
+      </c>
+      <c r="AA81">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="82" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82">
-        <v>0.12</v>
-      </c>
-      <c r="D82">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E82">
-        <v>0.12</v>
-      </c>
-      <c r="F82">
-        <v>0.09</v>
-      </c>
-      <c r="G82">
-        <v>0.12</v>
-      </c>
-      <c r="H82">
-        <v>0.09</v>
-      </c>
-      <c r="I82">
-        <v>0.1</v>
-      </c>
-      <c r="J82">
-        <v>0.09</v>
-      </c>
-      <c r="K82">
-        <v>0.06</v>
-      </c>
-      <c r="L82">
-        <v>0.04</v>
-      </c>
-      <c r="M82">
-        <v>0.04</v>
-      </c>
-      <c r="N82">
-        <v>0.04</v>
-      </c>
-      <c r="O82">
-        <v>0.08</v>
-      </c>
-      <c r="P82">
-        <v>0.06</v>
-      </c>
-      <c r="Q82">
-        <v>0.06</v>
-      </c>
-      <c r="R82">
-        <v>0.12</v>
-      </c>
-      <c r="S82">
-        <v>0.1</v>
-      </c>
-      <c r="X82">
-        <v>0.11</v>
-      </c>
-      <c r="Y82">
-        <v>0.02</v>
-      </c>
-      <c r="Z82">
-        <v>0.12</v>
-      </c>
-      <c r="AA82">
-        <v>0.08</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K86">
+      <c r="B85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K85">
         <v>0.24</v>
       </c>
-      <c r="L86">
+      <c r="L85">
         <v>0.16</v>
       </c>
-      <c r="M86">
+      <c r="M85">
         <v>0.16</v>
       </c>
-      <c r="N86">
+      <c r="N85">
         <v>0.1</v>
       </c>
-      <c r="O86">
+      <c r="O85">
         <v>0.48</v>
       </c>
-      <c r="P86">
+      <c r="P85">
         <v>0.24</v>
       </c>
-      <c r="Q86">
+      <c r="Q85">
         <v>0.18</v>
       </c>
-      <c r="R86">
+      <c r="R85">
         <v>0.12</v>
       </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0.1</v>
+      </c>
+      <c r="U85">
+        <v>0.22</v>
+      </c>
+      <c r="V85">
+        <v>0.6</v>
+      </c>
+      <c r="W85">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.15</v>
+      </c>
+      <c r="G90">
+        <v>0.6</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0.2</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0.48</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="Y90">
+        <v>0.6</v>
+      </c>
+      <c r="Z90">
+        <v>0.9</v>
+      </c>
+      <c r="AA90">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9953D8-89B6-4839-B835-D84E7CD7D43A}">
+  <dimension ref="A1:AA91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>2.8</v>
+      </c>
+      <c r="D2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E2">
+        <v>1.98</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+      <c r="G2">
+        <v>2.52</v>
+      </c>
+      <c r="H2">
+        <v>2.4</v>
+      </c>
+      <c r="I2">
+        <v>1.58</v>
+      </c>
+      <c r="J2">
+        <v>2.1</v>
+      </c>
+      <c r="K2">
+        <v>2.52</v>
+      </c>
+      <c r="L2">
+        <v>1.68</v>
+      </c>
+      <c r="M2">
+        <v>1.7</v>
+      </c>
+      <c r="N2">
+        <v>1.4</v>
+      </c>
+      <c r="O2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P2">
+        <v>2.46</v>
+      </c>
+      <c r="Q2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="R2">
+        <v>1.98</v>
+      </c>
+      <c r="S2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T2">
+        <v>0.6</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2.4</v>
+      </c>
+      <c r="W2">
+        <v>1.92</v>
+      </c>
+      <c r="X2">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.78</v>
+      </c>
+      <c r="Z2">
+        <v>1.98</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3">
+        <v>0.1</v>
+      </c>
+      <c r="U3">
+        <v>0.04</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.4</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>0.44</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.09</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="X8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.15</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="T14">
+        <v>0.4</v>
+      </c>
+      <c r="U14">
+        <v>0.72</v>
+      </c>
+      <c r="V14">
+        <v>0.4</v>
+      </c>
+      <c r="W14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0.03</v>
+      </c>
+      <c r="G18">
+        <v>0.04</v>
+      </c>
+      <c r="H18">
+        <v>0.03</v>
+      </c>
+      <c r="I18">
+        <v>0.02</v>
+      </c>
+      <c r="J18">
+        <v>0.03</v>
+      </c>
+      <c r="K18">
+        <v>0.03</v>
+      </c>
+      <c r="L18">
+        <v>0.02</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.04</v>
+      </c>
+      <c r="O18">
+        <v>0.2</v>
+      </c>
+      <c r="P18">
+        <v>0.03</v>
+      </c>
+      <c r="Q18">
+        <v>0.03</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>1.5</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.22</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1.92</v>
+      </c>
+      <c r="AA18">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X19">
+        <v>0.22</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>0.12</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0.12</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="G23">
+        <v>0.16</v>
+      </c>
+      <c r="H23">
+        <v>0.12</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>0.12</v>
+      </c>
+      <c r="K23">
+        <v>0.06</v>
+      </c>
+      <c r="L23">
+        <v>0.04</v>
+      </c>
+      <c r="M23">
+        <v>0.04</v>
+      </c>
+      <c r="N23">
+        <v>0.16</v>
+      </c>
+      <c r="O23">
+        <v>0.2</v>
+      </c>
+      <c r="P23">
+        <v>0.06</v>
+      </c>
+      <c r="Q23">
+        <v>0.06</v>
+      </c>
+      <c r="R23">
+        <v>0.06</v>
+      </c>
+      <c r="S23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.16</v>
+      </c>
+      <c r="P24">
+        <v>0.09</v>
+      </c>
+      <c r="Q24">
+        <v>0.03</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>0.15</v>
+      </c>
+      <c r="G27">
+        <v>0.08</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.09</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X30">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0.3</v>
+      </c>
+      <c r="AA30">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X31">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Y31">
+        <v>0.02</v>
+      </c>
+      <c r="Z31">
+        <v>0.3</v>
+      </c>
+      <c r="AA31">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X34">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.09</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.06</v>
+      </c>
+      <c r="K35">
+        <v>0.03</v>
+      </c>
+      <c r="L35">
+        <v>0.02</v>
+      </c>
+      <c r="M35">
+        <v>0.02</v>
+      </c>
+      <c r="N35">
+        <v>0.04</v>
+      </c>
+      <c r="O35">
+        <v>0.2</v>
+      </c>
+      <c r="P35">
+        <v>0.03</v>
+      </c>
+      <c r="Q35">
+        <v>0.09</v>
+      </c>
+      <c r="R35">
+        <v>0.12</v>
+      </c>
+      <c r="S35">
+        <v>0.1</v>
+      </c>
+      <c r="T35">
+        <v>0.1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.4</v>
+      </c>
+      <c r="X35">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <v>0.48</v>
+      </c>
+      <c r="D36">
+        <v>0.24</v>
+      </c>
+      <c r="E36">
+        <v>0.48</v>
+      </c>
+      <c r="F36">
+        <v>0.39</v>
+      </c>
+      <c r="G36">
+        <v>0.48</v>
+      </c>
+      <c r="H36">
+        <v>0.36</v>
+      </c>
+      <c r="I36">
+        <v>0.2</v>
+      </c>
+      <c r="J36">
+        <v>0.21</v>
+      </c>
+      <c r="T36">
+        <v>0.18</v>
+      </c>
+      <c r="U36">
+        <v>0.2</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>1.2</v>
+      </c>
+      <c r="X36">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y36">
+        <v>0.3</v>
+      </c>
+      <c r="Z36">
+        <v>0.48</v>
+      </c>
+      <c r="AA36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37">
+        <v>0.06</v>
+      </c>
+      <c r="L37">
+        <v>0.04</v>
+      </c>
+      <c r="M37">
+        <v>0.04</v>
+      </c>
+      <c r="N37">
+        <v>0.02</v>
+      </c>
+      <c r="O37">
+        <v>0.2</v>
+      </c>
+      <c r="P37">
+        <v>0.03</v>
+      </c>
+      <c r="Q37">
+        <v>0.06</v>
+      </c>
+      <c r="R37">
+        <v>0.12</v>
+      </c>
+      <c r="S37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0.2</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X41">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X69">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0.08</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81">
+        <v>0.12</v>
+      </c>
+      <c r="D81">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.12</v>
+      </c>
+      <c r="F81">
+        <v>0.09</v>
+      </c>
+      <c r="G81">
+        <v>0.12</v>
+      </c>
+      <c r="H81">
+        <v>0.09</v>
+      </c>
+      <c r="I81">
+        <v>0.1</v>
+      </c>
+      <c r="J81">
+        <v>0.09</v>
+      </c>
+      <c r="K81">
+        <v>0.06</v>
+      </c>
+      <c r="L81">
+        <v>0.04</v>
+      </c>
+      <c r="M81">
+        <v>0.04</v>
+      </c>
+      <c r="N81">
+        <v>0.04</v>
+      </c>
+      <c r="O81">
+        <v>0.08</v>
+      </c>
+      <c r="P81">
+        <v>0.06</v>
+      </c>
+      <c r="Q81">
+        <v>0.06</v>
+      </c>
+      <c r="R81">
+        <v>0.12</v>
+      </c>
+      <c r="S81">
+        <v>0.1</v>
+      </c>
+      <c r="T81">
+        <v>0.02</v>
+      </c>
+      <c r="U81">
+        <v>0.02</v>
+      </c>
+      <c r="V81">
+        <v>0.1</v>
+      </c>
+      <c r="W81">
+        <v>0.1</v>
+      </c>
+      <c r="X81">
+        <v>0.11</v>
+      </c>
+      <c r="Y81">
+        <v>0.02</v>
+      </c>
+      <c r="Z81">
+        <v>0.12</v>
+      </c>
+      <c r="AA81">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K85">
+        <v>0.24</v>
+      </c>
+      <c r="L85">
+        <v>0.16</v>
+      </c>
+      <c r="M85">
+        <v>0.16</v>
+      </c>
+      <c r="N85">
+        <v>0.1</v>
+      </c>
+      <c r="O85">
+        <v>0.48</v>
+      </c>
+      <c r="P85">
+        <v>0.24</v>
+      </c>
+      <c r="Q85">
+        <v>0.18</v>
+      </c>
+      <c r="R85">
+        <v>0.12</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0.1</v>
+      </c>
+      <c r="U85">
+        <v>0.22</v>
+      </c>
+      <c r="V85">
+        <v>0.6</v>
+      </c>
+      <c r="W85">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>0.15</v>
       </c>
-      <c r="G91">
+      <c r="G90">
         <v>0.6</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
         <v>0.2</v>
       </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
         <v>0.48</v>
       </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="X91">
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="X90">
         <v>0.69850000000000001</v>
       </c>
-      <c r="Y91">
+      <c r="Y90">
         <v>0.6</v>
       </c>
-      <c r="Z91">
+      <c r="Z90">
         <v>0.9</v>
       </c>
-      <c r="AA91">
+      <c r="AA90">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
+++ b/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4EB8EB-9E30-4B25-A603-4CED17AD7B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E64B9-80E1-4A2C-B215-F4020810CF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
   <si>
     <t>Supporto alle Regioni/ATS/AUSL per la definizione dei Piani di Sanità Pubblica Veterinaria: numero richieste evase/n. richieste pervenute</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Partecipazione alla progettazione esecutiva della nuova palazzina per laboratori ad alta efficienza previa demolizione dell'edificio ex sede IZO presso la sede di Brescia in collaborazione con infrastrutture  Lombarde</t>
+  </si>
+  <si>
+    <t>Obiettivo</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2490,7 @@
   <dimension ref="A1:AA91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>

--- a/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
+++ b/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E64B9-80E1-4A2C-B215-F4020810CF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516FA3E-2228-4BFB-BA13-63D134CB1EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
     <sheet name="FTEDdipsan" sheetId="3" r:id="rId2"/>
+    <sheet name="FTECdipsan" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio2!$A$1:$AK$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FTECdipsan!$B$1:$AA$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FTEDdipsan!$A$1:$W$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="129">
   <si>
     <t>Supporto alle Regioni/ATS/AUSL per la definizione dei Piani di Sanità Pubblica Veterinaria: numero richieste evase/n. richieste pervenute</t>
   </si>
@@ -465,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -483,6 +486,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2489,14 +2493,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9953D8-89B6-4839-B835-D84E7CD7D43A}">
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -3944,7 +3949,7 @@
         <v>0.1</v>
       </c>
       <c r="W81">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="X81">
         <v>0.11</v>
@@ -4106,6 +4111,18 @@
       <c r="S90">
         <v>0</v>
       </c>
+      <c r="T90">
+        <v>0.5</v>
+      </c>
+      <c r="U90">
+        <v>0.8</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
       <c r="X90">
         <v>0.69850000000000001</v>
       </c>
@@ -4138,6 +4155,2217 @@
       <c r="W91">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5711177-02DE-4FDE-A8A8-FF895E24BB9F}">
+  <dimension ref="A1:AA91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="7" customWidth="1"/>
+    <col min="16" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="7" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="D2">
+        <v>4.25</v>
+      </c>
+      <c r="E2">
+        <v>1.0893999999999999</v>
+      </c>
+      <c r="F2">
+        <v>7.2675000000000001</v>
+      </c>
+      <c r="G2">
+        <v>8.69</v>
+      </c>
+      <c r="H2">
+        <v>12.32</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5.6185</v>
+      </c>
+      <c r="J2" s="7">
+        <v>11.5204</v>
+      </c>
+      <c r="K2" s="7">
+        <v>6.4211499999999999</v>
+      </c>
+      <c r="L2" s="7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N2" s="7">
+        <v>6.0606</v>
+      </c>
+      <c r="O2" s="7">
+        <v>8.4459999999999997</v>
+      </c>
+      <c r="P2" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>11.505000000000001</v>
+      </c>
+      <c r="R2" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S2" s="7">
+        <v>14.78335</v>
+      </c>
+      <c r="T2" s="7">
+        <v>13.337999999999999</v>
+      </c>
+      <c r="U2" s="7">
+        <v>10.9055</v>
+      </c>
+      <c r="V2" s="7">
+        <v>21.655999999999999</v>
+      </c>
+      <c r="W2" s="7">
+        <v>24.793600000000001</v>
+      </c>
+      <c r="X2" s="7">
+        <v>14.4078</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>9.6882999999999999</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>13.1469</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>34.445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="T3">
+        <v>0.1482</v>
+      </c>
+      <c r="U3">
+        <v>0.1283</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>0.96</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1.3534999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5"/>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.56425000000000003</v>
+      </c>
+      <c r="X6"/>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="X8" s="7">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="X12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+    </row>
+    <row r="14" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="T14">
+        <v>0.1482</v>
+      </c>
+      <c r="U14">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="V14">
+        <v>1.3534999999999999</v>
+      </c>
+      <c r="W14">
+        <v>3.8740000000000001</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
+    </row>
+    <row r="15" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>0.12</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="E18">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="F18">
+        <v>9.69E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.11</v>
+      </c>
+      <c r="H18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.26915</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>4</v>
+      </c>
+      <c r="S18" s="7">
+        <v>5.8681999999999999</v>
+      </c>
+      <c r="T18" s="7">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="U18" s="7">
+        <v>6.4149999999999999E-2</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0.2707</v>
+      </c>
+      <c r="W18" s="7">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="X18" s="7">
+        <v>1.7464</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>16.855</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="X19" s="7">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+    </row>
+    <row r="21" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+    </row>
+    <row r="22" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+    </row>
+    <row r="23" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>0.48</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.22</v>
+      </c>
+      <c r="H23">
+        <v>0.7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="X23"/>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="X24"/>
+      <c r="Y24"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+    </row>
+    <row r="27" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.22</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="X27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+    </row>
+    <row r="30" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="X30" s="7">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0.16855000000000001</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="X31" s="7">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0.16855000000000001</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+    </row>
+    <row r="33" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="X34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <v>0.48</v>
+      </c>
+      <c r="D36">
+        <v>0.25</v>
+      </c>
+      <c r="E36">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.44</v>
+      </c>
+      <c r="H36">
+        <v>0.42</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="T36" s="7">
+        <v>0</v>
+      </c>
+      <c r="U36" s="7">
+        <v>0</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+      <c r="X36" s="7">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0</v>
+      </c>
+      <c r="X37"/>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+    </row>
+    <row r="39" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="X39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>1.2450000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="X40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="X41" s="7">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+    </row>
+    <row r="43" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+    </row>
+    <row r="44" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+    </row>
+    <row r="45" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+    </row>
+    <row r="46" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+    </row>
+    <row r="47" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+    </row>
+    <row r="48" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="X48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+    </row>
+    <row r="66" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+    </row>
+    <row r="67" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="X68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="X69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+    </row>
+    <row r="71" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+    </row>
+    <row r="72" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+    </row>
+    <row r="74" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+    </row>
+    <row r="75" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+    </row>
+    <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+    </row>
+    <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+    </row>
+    <row r="78" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="X78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="X79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Z79" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+    </row>
+    <row r="81" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81">
+        <v>0.24</v>
+      </c>
+      <c r="D81">
+        <v>0.25</v>
+      </c>
+      <c r="E81">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="G81">
+        <v>0.33</v>
+      </c>
+      <c r="H81">
+        <v>0.42</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="K81" s="7">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="N81" s="7">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0.1482</v>
+      </c>
+      <c r="U81" s="7">
+        <v>6.4149999999999999E-2</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0.2707</v>
+      </c>
+      <c r="W81" s="7">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="X81" s="7">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="Y81" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Z81" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+    </row>
+    <row r="83" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+    </row>
+    <row r="84" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+    </row>
+    <row r="85" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85" s="7">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N85" s="7">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S85" s="7">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
+        <v>0.2223</v>
+      </c>
+      <c r="U85" s="7">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="V85" s="7">
+        <v>1.3534999999999999</v>
+      </c>
+      <c r="W85" s="7">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="X85"/>
+      <c r="Y85"/>
+    </row>
+    <row r="86" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+    </row>
+    <row r="87" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+    </row>
+    <row r="88" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+    </row>
+    <row r="89" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.99</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="S90" s="7">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="U90" s="7">
+        <v>1.1547000000000001</v>
+      </c>
+      <c r="V90" s="7">
+        <v>0</v>
+      </c>
+      <c r="W90" s="7">
+        <v>0</v>
+      </c>
+      <c r="X90" s="7">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="Y90" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="Z90" s="7">
+        <v>3.371</v>
+      </c>
+      <c r="AA90" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="T91" s="7">
+        <v>0</v>
+      </c>
+      <c r="U91" s="7">
+        <v>0</v>
+      </c>
+      <c r="V91" s="7">
+        <v>0</v>
+      </c>
+      <c r="W91" s="7">
+        <v>0</v>
+      </c>
+      <c r="X91"/>
+      <c r="Y91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
+++ b/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516FA3E-2228-4BFB-BA13-63D134CB1EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467DE60-D08B-46C3-AE0F-7AFB1ECF3554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio2!$A$1:$AK$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FTECdipsan!$B$1:$AA$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FTEDdipsan!$A$1:$W$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FTEDdipsan!$A$1:$AA$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="129">
   <si>
     <t>Supporto alle Regioni/ATS/AUSL per la definizione dei Piani di Sanità Pubblica Veterinaria: numero richieste evase/n. richieste pervenute</t>
   </si>
@@ -2493,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9953D8-89B6-4839-B835-D84E7CD7D43A}">
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,7 +2706,9 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2791,7 +2793,9 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2817,7 +2821,9 @@
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2855,7 +2861,9 @@
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2913,7 +2921,9 @@
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="T14">
         <v>0.4</v>
       </c>
@@ -2931,7 +2941,9 @@
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3080,19 +3092,25 @@
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="22" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3192,13 +3210,17 @@
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="26" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3248,13 +3270,17 @@
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3300,13 +3326,17 @@
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="33" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3506,7 +3536,9 @@
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="39" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -3572,37 +3604,49 @@
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="43" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="45" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="47" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="48" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3628,115 +3672,153 @@
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="54" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="57" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="58" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="59" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="60" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="65" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="66" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="67" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -3791,49 +3873,65 @@
       <c r="A70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="71" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="72" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="74" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="75" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="78" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -3879,7 +3977,9 @@
       <c r="A80" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="81" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -3968,19 +4068,25 @@
       <c r="A82" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="83" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="84" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="85" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4033,25 +4139,33 @@
       <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="87" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="88" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="89" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">

--- a/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
+++ b/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467DE60-D08B-46C3-AE0F-7AFB1ECF3554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A62824-E72E-4AB7-BC61-99B5CC12A033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio2!$A$1:$AK$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FTECdipsan!$B$1:$AA$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FTEDdipsan!$A$1:$AA$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FTECdipsan!$A$1:$AJ$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FTEDdipsan!$A$1:$AK$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="144">
   <si>
     <t>Supporto alle Regioni/ATS/AUSL per la definizione dei Piani di Sanità Pubblica Veterinaria: numero richieste evase/n. richieste pervenute</t>
   </si>
@@ -420,13 +420,58 @@
   </si>
   <si>
     <t>Obiettivo</t>
+  </si>
+  <si>
+    <t>SORVEPIDEM</t>
+  </si>
+  <si>
+    <t>GESTCENT</t>
+  </si>
+  <si>
+    <t>FORMAZIONE</t>
+  </si>
+  <si>
+    <t>Individuazione delle ricerche da pubblicare</t>
+  </si>
+  <si>
+    <t>Attività routinaria</t>
+  </si>
+  <si>
+    <t>Programmazione  e partecipazione agli  audit interni annuali  per le produzioni certificate ISO 9001 (  biobanca-vaccini stabulogeni)  e  partecipazione  alla preparazione e alla conduzione degli Audit esterni condotti annualmente dall’ Ente certificatore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimento ed evoluzione del sistema di  gestione ISO 9001 per le produzioni certificate (Biobanca IZSLER-vaccini stabulogeni)  attraverso la partecipazione all' adeguamento dei processi  e della relativa documentazione di sistema  che seguono  ai  rilievi emersi in corso di audit (interno e/o esterno) e  alle opportunità per il miglioramento del servizio offerto al Cliente. </t>
+  </si>
+  <si>
+    <t>Recupero crediti e verifica incassi: definizione capitolato e riduzione tempi di incasso</t>
+  </si>
+  <si>
+    <t>Trasmissione alla Direzione di una proposta di regolamento  del codice di comportamento d'Istituto</t>
+  </si>
+  <si>
+    <t>Trasmissione alla Direzione di una proposta di regolamento  per la disciplina e l'autorizzazione allo svolgimento di incarichi extra-istituzionali</t>
+  </si>
+  <si>
+    <t>GESTRISUM</t>
+  </si>
+  <si>
+    <t>UOTECPAT</t>
+  </si>
+  <si>
+    <t>SERVCONT</t>
+  </si>
+  <si>
+    <t>AFFGENLEG</t>
+  </si>
+  <si>
+    <t>PROVV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,16 +492,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -464,11 +528,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -487,6 +566,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2491,20 +2582,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9953D8-89B6-4839-B835-D84E7CD7D43A}">
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" customWidth="1"/>
+    <col min="30" max="32" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.7109375" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2586,8 +2684,38 @@
       <c r="AA1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -2669,8 +2797,17 @@
       <c r="AA2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>0.43</v>
+      </c>
+      <c r="AC2">
+        <v>1.8</v>
+      </c>
+      <c r="AD2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2701,8 +2838,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2710,7 +2850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2789,15 +2929,18 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -2817,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -2825,7 +2968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2857,15 +3000,18 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2885,7 +3031,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -2917,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -2937,15 +3083,18 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2985,7 +3134,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -3067,8 +3216,11 @@
       <c r="AA18">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -3088,31 +3240,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AD20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AD21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
@@ -3171,7 +3332,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -3206,23 +3367,32 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AC25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>0.1</v>
+      </c>
+      <c r="AC26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3436,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -3274,15 +3444,30 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="AG29">
+        <v>0.18</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3302,7 +3487,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3322,23 +3507,53 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0.3</v>
+      </c>
+      <c r="AJ32">
+        <v>0.4</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -3358,7 +3573,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -3440,8 +3655,23 @@
       <c r="AA35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG35">
+        <v>0.18</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -3496,8 +3726,11 @@
       <c r="AA36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AC36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -3532,15 +3765,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="AB38">
+        <v>0.1</v>
+      </c>
+      <c r="AC38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -3560,7 +3799,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -3580,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -3600,55 +3839,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="AF42">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="AF43">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="AB44">
+        <v>0.1</v>
+      </c>
+      <c r="AF44">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AF45">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG46">
+        <v>0.03</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG47">
+        <v>0.03</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3668,7 +3952,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -3676,7 +3960,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
@@ -3684,7 +3968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -3692,7 +3976,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -3700,7 +3984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -3708,7 +3992,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -3716,7 +4000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
@@ -3724,7 +4008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
@@ -3732,7 +4016,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
@@ -3740,7 +4024,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
@@ -3748,47 +4032,122 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AG59">
+        <v>0.18</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG60">
+        <v>0.03</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="AG61">
+        <v>0.15</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG63">
+        <v>0.18</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
@@ -3796,48 +4155,84 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0.2</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0.4</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0.15</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -3846,427 +4241,669 @@
         <v>0</v>
       </c>
       <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0.15</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG69">
+        <v>0.42</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE72">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE73">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE74">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE75">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE76">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0.32</v>
+      </c>
+      <c r="AE77">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="X69">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
       <c r="Z78">
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
+    </row>
+    <row r="80" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80">
+        <v>0.12</v>
+      </c>
+      <c r="D80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.12</v>
+      </c>
+      <c r="F80">
+        <v>0.09</v>
+      </c>
+      <c r="G80">
+        <v>0.12</v>
+      </c>
+      <c r="H80">
+        <v>0.09</v>
+      </c>
+      <c r="I80">
+        <v>0.1</v>
+      </c>
+      <c r="J80">
+        <v>0.09</v>
+      </c>
+      <c r="K80">
+        <v>0.06</v>
+      </c>
+      <c r="L80">
+        <v>0.04</v>
+      </c>
+      <c r="M80">
+        <v>0.04</v>
+      </c>
+      <c r="N80">
+        <v>0.04</v>
+      </c>
+      <c r="O80">
         <v>0.08</v>
       </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>0.06</v>
+      </c>
+      <c r="Q80">
+        <v>0.06</v>
+      </c>
+      <c r="R80">
+        <v>0.12</v>
+      </c>
+      <c r="S80">
+        <v>0.1</v>
+      </c>
+      <c r="T80">
+        <v>0.02</v>
+      </c>
+      <c r="U80">
+        <v>0.02</v>
+      </c>
+      <c r="V80">
+        <v>0.1</v>
+      </c>
+      <c r="W80">
+        <v>0.08</v>
+      </c>
+      <c r="X80">
+        <v>0.11</v>
+      </c>
+      <c r="Y80">
+        <v>0.02</v>
+      </c>
+      <c r="Z80">
+        <v>0.12</v>
+      </c>
+      <c r="AA80">
+        <v>0.08</v>
+      </c>
+      <c r="AB80">
+        <v>0.05</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0.2</v>
+      </c>
+      <c r="AE80">
+        <v>0.02</v>
+      </c>
+      <c r="AF80">
+        <v>0.18</v>
+      </c>
+      <c r="AG80">
+        <v>0.12</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0.1</v>
+      </c>
+      <c r="AJ80">
+        <v>0.1</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C81">
+      <c r="AE81">
+        <v>0.02</v>
+      </c>
+      <c r="AG81">
+        <v>0.18</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0.1</v>
+      </c>
+      <c r="AJ81">
+        <v>0.1</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG82">
+        <v>0.36</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG83">
+        <v>0.42</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K84">
+        <v>0.24</v>
+      </c>
+      <c r="L84">
+        <v>0.16</v>
+      </c>
+      <c r="M84">
+        <v>0.16</v>
+      </c>
+      <c r="N84">
+        <v>0.1</v>
+      </c>
+      <c r="O84">
+        <v>0.48</v>
+      </c>
+      <c r="P84">
+        <v>0.24</v>
+      </c>
+      <c r="Q84">
+        <v>0.18</v>
+      </c>
+      <c r="R84">
         <v>0.12</v>
       </c>
-      <c r="D81">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E81">
-        <v>0.12</v>
-      </c>
-      <c r="F81">
-        <v>0.09</v>
-      </c>
-      <c r="G81">
-        <v>0.12</v>
-      </c>
-      <c r="H81">
-        <v>0.09</v>
-      </c>
-      <c r="I81">
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
         <v>0.1</v>
       </c>
-      <c r="J81">
-        <v>0.09</v>
-      </c>
-      <c r="K81">
+      <c r="U84">
+        <v>0.22</v>
+      </c>
+      <c r="V84">
+        <v>0.6</v>
+      </c>
+      <c r="W84">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG85">
+        <v>0.36</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF87">
         <v>0.06</v>
       </c>
-      <c r="L81">
-        <v>0.04</v>
-      </c>
-      <c r="M81">
-        <v>0.04</v>
-      </c>
-      <c r="N81">
-        <v>0.04</v>
-      </c>
-      <c r="O81">
-        <v>0.08</v>
-      </c>
-      <c r="P81">
+    </row>
+    <row r="88" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF88">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0.15</v>
+      </c>
+      <c r="G89">
+        <v>0.6</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0.2</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0.48</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0.5</v>
+      </c>
+      <c r="U89">
+        <v>0.8</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="Y89">
+        <v>0.6</v>
+      </c>
+      <c r="Z89">
+        <v>0.9</v>
+      </c>
+      <c r="AA89">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE91">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE92">
+        <v>0.76</v>
+      </c>
+      <c r="AF92">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF93">
         <v>0.06</v>
       </c>
-      <c r="Q81">
-        <v>0.06</v>
-      </c>
-      <c r="R81">
-        <v>0.12</v>
-      </c>
-      <c r="S81">
-        <v>0.1</v>
-      </c>
-      <c r="T81">
-        <v>0.02</v>
-      </c>
-      <c r="U81">
-        <v>0.02</v>
-      </c>
-      <c r="V81">
-        <v>0.1</v>
-      </c>
-      <c r="W81">
-        <v>0.08</v>
-      </c>
-      <c r="X81">
-        <v>0.11</v>
-      </c>
-      <c r="Y81">
-        <v>0.02</v>
-      </c>
-      <c r="Z81">
-        <v>0.12</v>
-      </c>
-      <c r="AA81">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K85">
-        <v>0.24</v>
-      </c>
-      <c r="L85">
-        <v>0.16</v>
-      </c>
-      <c r="M85">
-        <v>0.16</v>
-      </c>
-      <c r="N85">
-        <v>0.1</v>
-      </c>
-      <c r="O85">
-        <v>0.48</v>
-      </c>
-      <c r="P85">
-        <v>0.24</v>
-      </c>
-      <c r="Q85">
+    </row>
+    <row r="94" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG95">
         <v>0.18</v>
       </c>
-      <c r="R85">
-        <v>0.12</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0.1</v>
-      </c>
-      <c r="U85">
-        <v>0.22</v>
-      </c>
-      <c r="V85">
-        <v>0.6</v>
-      </c>
-      <c r="W85">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0.15</v>
-      </c>
-      <c r="G90">
-        <v>0.6</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0.2</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0.48</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0.5</v>
-      </c>
-      <c r="U90">
-        <v>0.8</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <v>0.69850000000000001</v>
-      </c>
-      <c r="Y90">
-        <v>0.6</v>
-      </c>
-      <c r="Z90">
-        <v>0.9</v>
-      </c>
-      <c r="AA90">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
         <v>0</v>
       </c>
     </row>
@@ -4277,10 +4914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5711177-02DE-4FDE-A8A8-FF895E24BB9F}">
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,10 +4928,16 @@
     <col min="9" max="15" width="9.140625" style="7" customWidth="1"/>
     <col min="16" max="23" width="9.140625" customWidth="1"/>
     <col min="24" max="25" width="9.140625" style="7" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" customWidth="1"/>
+    <col min="30" max="32" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -4376,8 +5019,38 @@
       <c r="AA1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -4459,8 +5132,17 @@
       <c r="AA2" s="7">
         <v>34.445</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AB2" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="AC2">
+        <v>1.2</v>
+      </c>
+      <c r="AD2">
+        <v>5.6864999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -4498,12 +5180,17 @@
       <c r="AA3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB3" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -4514,7 +5201,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -4565,7 +5252,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4604,11 +5291,13 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -4618,8 +5307,11 @@
       <c r="O7"/>
       <c r="X7"/>
       <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>0.33450000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -4646,11 +5338,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -4661,7 +5355,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4700,11 +5394,13 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -4714,8 +5410,11 @@
       <c r="O11"/>
       <c r="X11"/>
       <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -4742,7 +5441,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -4781,11 +5480,13 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -4808,11 +5509,13 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -4822,8 +5525,11 @@
       <c r="O15"/>
       <c r="X15"/>
       <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -4850,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -4877,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -4959,8 +5665,11 @@
       <c r="AA18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>0.33450000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -4987,11 +5696,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5001,12 +5712,17 @@
       <c r="O20"/>
       <c r="X20"/>
       <c r="Y20"/>
-    </row>
-    <row r="21" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AD20">
+        <v>6.6900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -5016,12 +5732,17 @@
       <c r="O21"/>
       <c r="X21"/>
       <c r="Y21"/>
-    </row>
-    <row r="22" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AD21">
+        <v>6.6900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -5031,8 +5752,11 @@
       <c r="O22"/>
       <c r="X22"/>
       <c r="Y22"/>
-    </row>
-    <row r="23" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
@@ -5093,7 +5817,7 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -5132,11 +5856,13 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -5146,12 +5872,17 @@
       <c r="O25"/>
       <c r="X25"/>
       <c r="Y25"/>
-    </row>
-    <row r="26" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AC25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -5161,8 +5892,14 @@
       <c r="O26"/>
       <c r="X26"/>
       <c r="Y26"/>
-    </row>
-    <row r="27" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>0.4</v>
+      </c>
+      <c r="AC26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -5210,12 +5947,15 @@
       <c r="AA27" s="7">
         <v>0.41499999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -5226,11 +5966,13 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -5240,8 +5982,23 @@
       <c r="O29"/>
       <c r="X29"/>
       <c r="Y29"/>
-    </row>
-    <row r="30" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="AG29">
+        <v>1.01</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -5268,7 +6025,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -5295,11 +6052,13 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -5309,12 +6068,29 @@
       <c r="O32"/>
       <c r="X32"/>
       <c r="Y32"/>
-    </row>
-    <row r="33" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0.1938</v>
+      </c>
+      <c r="AJ32">
+        <v>5.7380000000000004</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -5324,8 +6100,23 @@
       <c r="O33"/>
       <c r="X33"/>
       <c r="Y33"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0.4</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -5352,7 +6143,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -5434,8 +6225,23 @@
       <c r="AA35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG35">
+        <v>1.44</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>4.1456999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -5495,8 +6301,11 @@
       <c r="AA36" s="7">
         <v>0.41499999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -5535,11 +6344,13 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -5549,8 +6360,14 @@
       <c r="O38"/>
       <c r="X38"/>
       <c r="Y38"/>
-    </row>
-    <row r="39" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -5577,7 +6394,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -5604,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -5631,11 +6448,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -5645,12 +6464,17 @@
       <c r="O42"/>
       <c r="X42"/>
       <c r="Y42"/>
-    </row>
-    <row r="43" spans="1:27" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="AF42">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -5660,12 +6484,17 @@
       <c r="O43"/>
       <c r="X43"/>
       <c r="Y43"/>
-    </row>
-    <row r="44" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="AF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -5675,12 +6504,20 @@
       <c r="O44"/>
       <c r="X44"/>
       <c r="Y44"/>
-    </row>
-    <row r="45" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -5690,12 +6527,17 @@
       <c r="O45"/>
       <c r="X45"/>
       <c r="Y45"/>
-    </row>
-    <row r="46" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AF45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -5705,12 +6547,29 @@
       <c r="O46"/>
       <c r="X46"/>
       <c r="Y46"/>
-    </row>
-    <row r="47" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG46">
+        <v>1.01</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5720,8 +6579,23 @@
       <c r="O47"/>
       <c r="X47"/>
       <c r="Y47"/>
-    </row>
-    <row r="48" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG47">
+        <v>1.01</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -5748,107 +6622,360 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+    </row>
+    <row r="50" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+    </row>
+    <row r="51" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+    </row>
+    <row r="52" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+    </row>
+    <row r="53" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+    </row>
+    <row r="54" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+    </row>
+    <row r="55" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+    </row>
+    <row r="56" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+    </row>
+    <row r="57" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+    </row>
+    <row r="58" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+    </row>
+    <row r="59" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="AG59">
+        <v>0.86</v>
+      </c>
+      <c r="AH59">
+        <v>1.2</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="AG60">
+        <v>0.86</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="AG61">
+        <v>0.86</v>
+      </c>
+      <c r="AH61">
+        <v>1.2</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>2.5512000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="AG63">
+        <v>2.88</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+    </row>
+    <row r="65" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
@@ -5858,12 +6985,29 @@
       <c r="O65"/>
       <c r="X65"/>
       <c r="Y65"/>
-    </row>
-    <row r="66" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>12.9846</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
@@ -5873,12 +7017,29 @@
       <c r="O66"/>
       <c r="X66"/>
       <c r="Y66"/>
-    </row>
-    <row r="67" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>17.213999999999999</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
@@ -5888,14 +7049,31 @@
       <c r="O67"/>
       <c r="X67"/>
       <c r="Y67"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0.1938</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68"/>
+      <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
@@ -5911,12 +7089,27 @@
         <v>0</v>
       </c>
       <c r="AA68" s="7">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0.1938</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>123</v>
@@ -5928,24 +7121,31 @@
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
-      <c r="X69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>2.4</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
@@ -5956,11 +7156,13 @@
       <c r="X70"/>
       <c r="Y70"/>
     </row>
-    <row r="71" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
@@ -5970,12 +7172,29 @@
       <c r="O71"/>
       <c r="X71"/>
       <c r="Y71"/>
-    </row>
-    <row r="72" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0.64</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
@@ -5985,12 +7204,17 @@
       <c r="O72"/>
       <c r="X72"/>
       <c r="Y72"/>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE72">
+        <v>0.25380000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
@@ -6000,12 +7224,17 @@
       <c r="O73"/>
       <c r="X73"/>
       <c r="Y73"/>
-    </row>
-    <row r="74" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="AE73">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
@@ -6015,12 +7244,17 @@
       <c r="O74"/>
       <c r="X74"/>
       <c r="Y74"/>
-    </row>
-    <row r="75" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AE74">
+        <v>0.76139999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
@@ -6030,12 +7264,17 @@
       <c r="O75"/>
       <c r="X75"/>
       <c r="Y75"/>
-    </row>
-    <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AE75">
+        <v>0.76139999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
@@ -6045,12 +7284,17 @@
       <c r="O76"/>
       <c r="X76"/>
       <c r="Y76"/>
-    </row>
-    <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AE76">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
@@ -6058,12 +7302,25 @@
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-    </row>
-    <row r="78" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="X77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AE77">
+        <v>0.88829999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>123</v>
@@ -6079,18 +7336,21 @@
         <v>0</v>
       </c>
       <c r="Y78" s="7">
-        <v>0</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="Z78" s="7">
         <v>0</v>
       </c>
       <c r="AA78" s="7">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0.38069999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>123</v>
@@ -6102,122 +7362,164 @@
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
-      <c r="X79" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="7">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="Z79" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="X79"/>
+      <c r="Y79"/>
+    </row>
+    <row r="80" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-    </row>
-    <row r="81" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80">
+        <v>0.24</v>
+      </c>
+      <c r="D80">
+        <v>0.25</v>
+      </c>
+      <c r="E80">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="F80">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="G80">
+        <v>0.33</v>
+      </c>
+      <c r="H80">
+        <v>0.42</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="K80" s="7">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="N80" s="7">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S80" s="7">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="T80" s="7">
+        <v>0.1482</v>
+      </c>
+      <c r="U80" s="7">
+        <v>6.4149999999999999E-2</v>
+      </c>
+      <c r="V80" s="7">
+        <v>0.2707</v>
+      </c>
+      <c r="W80" s="7">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="X80" s="7">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="Y80" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Z80" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AB80" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="AE80">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="AF80">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="AG80">
+        <v>0.43</v>
+      </c>
+      <c r="AH80">
+        <v>0.24</v>
+      </c>
+      <c r="AI80">
+        <v>2.907</v>
+      </c>
+      <c r="AJ80">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="AK80">
+        <v>0.42520000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C81">
-        <v>0.24</v>
-      </c>
-      <c r="D81">
-        <v>0.25</v>
-      </c>
-      <c r="E81">
-        <v>0.25140000000000001</v>
-      </c>
-      <c r="F81">
-        <v>0.29070000000000001</v>
-      </c>
-      <c r="G81">
-        <v>0.33</v>
-      </c>
-      <c r="H81">
-        <v>0.42</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0.33050000000000002</v>
-      </c>
-      <c r="J81" s="7">
-        <v>0.27760000000000001</v>
-      </c>
-      <c r="K81" s="7">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="L81" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="M81" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="N81" s="7">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="P81" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="Q81" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="R81" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="S81" s="7">
-        <v>0.22570000000000001</v>
-      </c>
-      <c r="T81" s="7">
-        <v>0.1482</v>
-      </c>
-      <c r="U81" s="7">
-        <v>6.4149999999999999E-2</v>
-      </c>
-      <c r="V81" s="7">
-        <v>0.2707</v>
-      </c>
-      <c r="W81" s="7">
-        <v>0.38740000000000002</v>
-      </c>
-      <c r="X81" s="7">
-        <v>0.21829999999999999</v>
-      </c>
-      <c r="Y81" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="Z81" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="7">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82" s="5"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="AE81">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="AG81">
+        <v>0.43</v>
+      </c>
+      <c r="AH81">
+        <v>0.48</v>
+      </c>
+      <c r="AI81">
+        <v>2.907</v>
+      </c>
+      <c r="AJ81">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="AK81">
+        <v>1.1693</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
@@ -6227,12 +7529,29 @@
       <c r="O82"/>
       <c r="X82"/>
       <c r="Y82"/>
-    </row>
-    <row r="83" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG82">
+        <v>1.29</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
@@ -6242,78 +7561,112 @@
       <c r="O83"/>
       <c r="X83"/>
       <c r="Y83"/>
-    </row>
-    <row r="84" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0.96</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I84"/>
       <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
+      <c r="K84" s="7">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S84" s="7">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0.2223</v>
+      </c>
+      <c r="U84" s="7">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="V84" s="7">
+        <v>1.3534999999999999</v>
+      </c>
+      <c r="W84" s="7">
+        <v>5.8109999999999999</v>
+      </c>
       <c r="X84"/>
       <c r="Y84"/>
     </row>
-    <row r="85" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>123</v>
       </c>
       <c r="I85"/>
       <c r="J85"/>
-      <c r="K85" s="7">
-        <v>0.46139999999999998</v>
-      </c>
-      <c r="L85" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="M85" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="N85" s="7">
-        <v>0.26640000000000003</v>
-      </c>
-      <c r="O85" s="7">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="P85" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q85" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="R85" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="S85" s="7">
-        <v>0</v>
-      </c>
-      <c r="T85" s="7">
-        <v>0.2223</v>
-      </c>
-      <c r="U85" s="7">
-        <v>0.25659999999999999</v>
-      </c>
-      <c r="V85" s="7">
-        <v>1.3534999999999999</v>
-      </c>
-      <c r="W85" s="7">
-        <v>5.8109999999999999</v>
-      </c>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
       <c r="X85"/>
       <c r="Y85"/>
-    </row>
-    <row r="86" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG85">
+        <v>1.44</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
@@ -6323,12 +7676,29 @@
       <c r="O86"/>
       <c r="X86"/>
       <c r="Y86"/>
-    </row>
-    <row r="87" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
@@ -6338,12 +7708,17 @@
       <c r="O87"/>
       <c r="X87"/>
       <c r="Y87"/>
-    </row>
-    <row r="88" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="AF87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
@@ -6353,85 +7728,112 @@
       <c r="O88"/>
       <c r="X88"/>
       <c r="Y88"/>
-    </row>
-    <row r="89" spans="1:27" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-    </row>
-    <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="AF88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
+      <c r="B89" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
         <v>0.48449999999999999</v>
       </c>
-      <c r="G90">
+      <c r="G89">
         <v>0.99</v>
       </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
-        <v>0</v>
-      </c>
-      <c r="K90" s="7">
-        <v>0</v>
-      </c>
-      <c r="L90" s="7">
-        <v>0</v>
-      </c>
-      <c r="M90" s="7">
-        <v>0</v>
-      </c>
-      <c r="N90" s="7">
-        <v>0</v>
-      </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
-      <c r="P90" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="7">
-        <v>0</v>
-      </c>
-      <c r="R90" s="7">
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>0</v>
+      </c>
+      <c r="R89" s="7">
         <v>0.3</v>
       </c>
-      <c r="S90" s="7">
-        <v>0</v>
-      </c>
+      <c r="S89" s="7">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="U89" s="7">
+        <v>1.1547000000000001</v>
+      </c>
+      <c r="V89" s="7">
+        <v>0</v>
+      </c>
+      <c r="W89" s="7">
+        <v>0</v>
+      </c>
+      <c r="X89" s="7">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="Y89" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="Z89" s="7">
+        <v>3.371</v>
+      </c>
+      <c r="AA89" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
       <c r="T90" s="7">
-        <v>0.74099999999999999</v>
+        <v>0</v>
       </c>
       <c r="U90" s="7">
-        <v>1.1547000000000001</v>
+        <v>0</v>
       </c>
       <c r="V90" s="7">
         <v>0</v>
@@ -6439,47 +7841,97 @@
       <c r="W90" s="7">
         <v>0</v>
       </c>
-      <c r="X90" s="7">
-        <v>2.1829999999999998</v>
-      </c>
-      <c r="Y90" s="7">
-        <v>2.78</v>
-      </c>
-      <c r="Z90" s="7">
-        <v>3.371</v>
-      </c>
-      <c r="AA90" s="7">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>127</v>
+      <c r="X90"/>
+      <c r="Y90"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="T91" s="7">
-        <v>0</v>
-      </c>
-      <c r="U91" s="7">
-        <v>0</v>
-      </c>
-      <c r="V91" s="7">
-        <v>0</v>
-      </c>
-      <c r="W91" s="7">
-        <v>0</v>
-      </c>
-      <c r="X91"/>
-      <c r="Y91"/>
+      <c r="AE91">
+        <v>0.63449999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE92">
+        <v>8.1216000000000008</v>
+      </c>
+      <c r="AF92">
+        <v>2.4621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37" ht="102" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF94">
+        <f>SUM(AF42:AF93)</f>
+        <v>2.83</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>2.3386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG95">
+        <v>0.86</v>
+      </c>
+      <c r="AH95">
+        <v>0.48</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
+++ b/PROGRAMMAZIONE/data/raw/obiettiviXSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A62824-E72E-4AB7-BC61-99B5CC12A033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C47DAF1-33B6-4E62-B4C9-12C3404283F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio2!$A$1:$AK$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FTECdipsan!$A$1:$AJ$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FTECdipsan!$A$1:$AK$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FTEDdipsan!$A$1:$AK$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2582,11 +2582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9953D8-89B6-4839-B835-D84E7CD7D43A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2715,7 +2714,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -2800,14 +2799,11 @@
       <c r="AB2">
         <v>0.43</v>
       </c>
-      <c r="AC2">
-        <v>1.8</v>
-      </c>
       <c r="AD2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2841,8 +2837,11 @@
       <c r="AB3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -3220,7 +3219,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>134</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>54</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>55</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>56</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>58</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>59</v>
       </c>
@@ -4335,7 +4334,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>60</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>62</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>63</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>64</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>67</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>137</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>69</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>70</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>73</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>127</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>132</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>133</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>135</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>136</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>138</v>
       </c>
@@ -4908,6 +4907,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK95" xr:uid="{EA4CE77B-7C49-402C-84C0-438D97B82610}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Realizzazione nei tempi e nel target previsto delle misure del PTPCT 2021-2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4916,19 +4922,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5711177-02DE-4FDE-A8A8-FF895E24BB9F}">
   <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="7" customWidth="1"/>
-    <col min="16" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" style="7" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="12.5703125" customWidth="1"/>
     <col min="30" max="32" width="9.140625" customWidth="1"/>
     <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
@@ -5135,9 +5141,6 @@
       <c r="AB2" s="7">
         <v>3.04</v>
       </c>
-      <c r="AC2">
-        <v>1.2</v>
-      </c>
       <c r="AD2">
         <v>5.6864999999999997</v>
       </c>
@@ -5182,6 +5185,9 @@
       </c>
       <c r="AB3" s="7">
         <v>0.2</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
